--- a/Client/Assets/Data/Summon.xlsx
+++ b/Client/Assets/Data/Summon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CEDD47C-6EE0-453A-B25E-63CA909DEC0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8AFA8F-9771-434F-B2DC-2981E25B5D87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,6 +85,13 @@
   <si>
     <t>Summoned_holySword</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Summoned_magicEye</t>
   </si>
 </sst>
 </file>
@@ -409,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -486,6 +493,29 @@
         <v>20</v>
       </c>
     </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Client/Assets/Data/Summon.xlsx
+++ b/Client/Assets/Data/Summon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8AFA8F-9771-434F-B2DC-2981E25B5D87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BA5A4A-ABF7-47BF-AF6F-8B19196403FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -516,6 +516,236 @@
         <v>24</v>
       </c>
     </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>9999</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>9999</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>9999</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>9999</v>
+      </c>
+      <c r="E8">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>9999</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>9999</v>
+      </c>
+      <c r="E10">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>9999</v>
+      </c>
+      <c r="E11">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>9999</v>
+      </c>
+      <c r="E12">
+        <v>13</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <v>9999</v>
+      </c>
+      <c r="E13">
+        <v>14</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>9999</v>
+      </c>
+      <c r="E14">
+        <v>15</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Client/Assets/Data/Summon.xlsx
+++ b/Client/Assets/Data/Summon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BA5A4A-ABF7-47BF-AF6F-8B19196403FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9609E718-C787-4D3C-BB41-298588F96E88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +92,14 @@
   </si>
   <si>
     <t>Summoned_magicEye</t>
+  </si>
+  <si>
+    <t>口魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Summoned_magicMouth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -416,15 +424,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="20.125" customWidth="1"/>
+    <col min="3" max="3" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -744,6 +752,29 @@
       </c>
       <c r="G14">
         <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Assets/Data/Summon.xlsx
+++ b/Client/Assets/Data/Summon.xlsx
@@ -1,26 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9609E718-C787-4D3C-BB41-298588F96E88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28440" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -28,109 +17,427 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
   <si>
     <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>预设</t>
+  </si>
+  <si>
+    <t>持续时间</t>
+  </si>
+  <si>
+    <t>强度</t>
+  </si>
+  <si>
+    <t>攻击速度</t>
+  </si>
+  <si>
+    <t>技能</t>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预设</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>持续时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>lifeTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>强度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>power</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>skill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>圣剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Summoned_holySword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>眼魔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Summoned_magicEye</t>
   </si>
   <si>
     <t>口魔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Summoned_magicMouth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -138,24 +445,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -204,7 +797,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -239,7 +832,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -413,72 +1006,67 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="3" max="3" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>1</v>
       </c>
@@ -501,7 +1089,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>2</v>
       </c>
@@ -512,19 +1100,19 @@
         <v>16</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>3</v>
       </c>
@@ -547,7 +1135,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>4</v>
       </c>
@@ -570,7 +1158,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>5</v>
       </c>
@@ -593,7 +1181,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>6</v>
       </c>
@@ -616,7 +1204,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>7</v>
       </c>
@@ -639,7 +1227,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>8</v>
       </c>
@@ -662,7 +1250,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>9</v>
       </c>
@@ -685,7 +1273,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>10</v>
       </c>
@@ -708,7 +1296,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>11</v>
       </c>
@@ -731,7 +1319,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>12</v>
       </c>
@@ -754,7 +1342,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>13</v>
       </c>
@@ -765,7 +1353,7 @@
         <v>18</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -778,8 +1366,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/Summon.xlsx
+++ b/Client/Assets/Data/Summon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C3F8E6-489D-48E6-B8D9-DB67E69F6EBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFDC291-1A7B-45B1-924D-2CC156D4338B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -444,7 +444,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -563,6 +563,9 @@
       <c r="G4">
         <v>24</v>
       </c>
+      <c r="H4">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -845,6 +848,9 @@
       </c>
       <c r="G15">
         <v>32</v>
+      </c>
+      <c r="H15">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Assets/Data/Summon.xlsx
+++ b/Client/Assets/Data/Summon.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFDC291-1A7B-45B1-924D-2CC156D4338B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
   <si>
     <t>id</t>
   </si>
@@ -43,6 +37,15 @@
     <t>技能</t>
   </si>
   <si>
+    <t>生命值</t>
+  </si>
+  <si>
+    <t>嘲讽-优先分摊伤害，且分摊比例为100%</t>
+  </si>
+  <si>
+    <t>虚无-不分摊伤害</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -61,33 +64,17 @@
     <t>skill</t>
   </si>
   <si>
-    <t>圣剑</t>
-  </si>
-  <si>
-    <t>Summoned_holySword</t>
-  </si>
-  <si>
-    <t>眼魔</t>
-  </si>
-  <si>
-    <t>Summoned_magicEye</t>
-  </si>
-  <si>
-    <t>口魔</t>
-  </si>
-  <si>
-    <t>Summoned_magicMouth</t>
-  </si>
-  <si>
-    <t>生命值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>is</t>
     </r>
     <r>
@@ -95,32 +82,48 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Taunt</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>isVoid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚无-不分摊伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘲讽-优先分摊伤害，且分摊比例为100%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣剑</t>
+  </si>
+  <si>
+    <t>Summoned_holySword</t>
+  </si>
+  <si>
+    <t>眼魔</t>
+  </si>
+  <si>
+    <t>Summoned_magicEye</t>
+  </si>
+  <si>
+    <t>口魔</t>
+  </si>
+  <si>
+    <t>Summoned_magicMouth</t>
+  </si>
+  <si>
+    <t>盾魔</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,29 +132,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -159,25 +478,311 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -435,26 +1040,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="21.875" customWidth="1"/>
     <col min="9" max="9" width="33.875" customWidth="1"/>
     <col min="10" max="10" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -477,53 +1082,53 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <v>9999</v>
@@ -541,21 +1146,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -563,19 +1168,19 @@
       <c r="G4">
         <v>24</v>
       </c>
-      <c r="H4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>9999</v>
@@ -593,15 +1198,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>9999</v>
@@ -619,15 +1224,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>9999</v>
@@ -645,15 +1250,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D8">
         <v>9999</v>
@@ -671,15 +1276,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D9">
         <v>9999</v>
@@ -697,15 +1302,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D10">
         <v>9999</v>
@@ -723,15 +1328,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D11">
         <v>9999</v>
@@ -749,15 +1354,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D12">
         <v>9999</v>
@@ -775,15 +1380,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D13">
         <v>9999</v>
@@ -801,15 +1406,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D14">
         <v>9999</v>
@@ -827,18 +1432,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -849,13 +1454,42 @@
       <c r="G15">
         <v>32</v>
       </c>
-      <c r="H15">
-        <v>12</v>
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>75</v>
+      </c>
+      <c r="H16">
+        <v>6</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>